--- a/Q2/处理数据/第二问制定的政策.xlsx
+++ b/Q2/处理数据/第二问制定的政策.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programing\PycharmProjects\2022MCM-B\Q2\处理数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E86AC-019F-4150-9723-500788B596BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE16A37-8362-46F2-9A7F-EAB211FD14D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>政策</t>
   </si>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>食草动物致人伤亡数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>犀牛栖息地百分比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大象致人伤亡数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
@@ -525,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -655,12 +663,12 @@
         <v>23</v>
       </c>
       <c r="I5" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>15</v>
-      </c>
-      <c r="K5" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -688,13 +696,13 @@
         <v>23</v>
       </c>
       <c r="I6" s="11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J6" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -720,12 +728,13 @@
         <v>23</v>
       </c>
       <c r="I7" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -750,16 +759,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8" s="11">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -782,18 +791,16 @@
         <v>8</v>
       </c>
       <c r="H9" s="11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -816,14 +823,15 @@
         <v>8</v>
       </c>
       <c r="H10" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I10" s="11">
         <v>18</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
@@ -833,10 +841,10 @@
         <v>65.02</v>
       </c>
       <c r="C11" s="11">
-        <v>112797</v>
+        <v>109778</v>
       </c>
       <c r="D11" s="11">
-        <v>26981</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="11">
         <v>4</v>
@@ -848,16 +856,16 @@
         <v>8</v>
       </c>
       <c r="H11" s="11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I11" s="11">
         <v>18</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -865,10 +873,10 @@
         <v>65.02</v>
       </c>
       <c r="C12" s="11">
-        <v>112797</v>
+        <v>99778</v>
       </c>
       <c r="D12" s="11">
-        <v>26981</v>
+        <v>35000</v>
       </c>
       <c r="E12" s="11">
         <v>4</v>
@@ -880,17 +888,17 @@
         <v>8</v>
       </c>
       <c r="H12" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="11">
         <v>18</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -898,10 +906,10 @@
         <v>65.02</v>
       </c>
       <c r="C13" s="11">
-        <v>112797</v>
+        <v>94778</v>
       </c>
       <c r="D13" s="11">
-        <v>26981</v>
+        <v>40000</v>
       </c>
       <c r="E13" s="11">
         <v>4</v>
@@ -913,15 +921,15 @@
         <v>8</v>
       </c>
       <c r="H13" s="11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I13" s="11">
         <v>18</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13"/>
+        <v>17</v>
+      </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
@@ -931,10 +939,10 @@
         <v>65.02</v>
       </c>
       <c r="C14" s="11">
-        <v>109778</v>
+        <v>89778</v>
       </c>
       <c r="D14" s="11">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="E14" s="11">
         <v>4</v>
@@ -952,10 +960,11 @@
         <v>18</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -963,16 +972,16 @@
         <v>65.02</v>
       </c>
       <c r="C15" s="11">
-        <v>99778</v>
+        <v>112797</v>
       </c>
       <c r="D15" s="11">
-        <v>35000</v>
+        <v>26981</v>
       </c>
       <c r="E15" s="11">
         <v>4</v>
       </c>
       <c r="F15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>8</v>
@@ -984,11 +993,11 @@
         <v>18</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -996,10 +1005,10 @@
         <v>65.02</v>
       </c>
       <c r="C16" s="11">
-        <v>94778</v>
+        <v>112797</v>
       </c>
       <c r="D16" s="11">
-        <v>40000</v>
+        <v>26981</v>
       </c>
       <c r="E16" s="11">
         <v>4</v>
@@ -1017,9 +1026,9 @@
         <v>18</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="K16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
@@ -1029,10 +1038,10 @@
         <v>65.02</v>
       </c>
       <c r="C17" s="11">
-        <v>89778</v>
+        <v>112797</v>
       </c>
       <c r="D17" s="11">
-        <v>45000</v>
+        <v>26981</v>
       </c>
       <c r="E17" s="11">
         <v>4</v>
@@ -1041,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>23</v>
@@ -1050,60 +1059,59 @@
         <v>18</v>
       </c>
       <c r="J17" s="3">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>65.02</v>
+      </c>
+      <c r="C18" s="11">
+        <v>112797</v>
+      </c>
+      <c r="D18" s="11">
+        <v>26981</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3">
+        <v>17</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>65.02</v>
+      </c>
+      <c r="C19" s="11">
+        <v>112797</v>
+      </c>
+      <c r="D19" s="11">
+        <v>26981</v>
+      </c>
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C18" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D18" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>8</v>
-      </c>
-      <c r="H18" s="11">
-        <v>23</v>
-      </c>
-      <c r="I18" s="11">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C19" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D19" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1117,8 +1125,10 @@
         <v>18</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
@@ -1134,7 +1144,7 @@
         <v>26981</v>
       </c>
       <c r="E20" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -1149,10 +1159,10 @@
         <v>18</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>26981</v>
       </c>
       <c r="E21" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="11">
         <v>1</v>
@@ -1181,9 +1191,8 @@
         <v>18</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
@@ -1199,10 +1208,10 @@
         <v>26981</v>
       </c>
       <c r="E22" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11">
         <v>8</v>
@@ -1214,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K22"/>
     </row>
@@ -1222,608 +1231,188 @@
       <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C23" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D23" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11">
-        <v>8</v>
-      </c>
-      <c r="H23" s="11">
-        <v>23</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="B23" s="3">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3">
+        <v>112797</v>
+      </c>
+      <c r="D23" s="3">
+        <v>26981</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3">
         <v>18</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C24" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D24" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E24" s="11">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11">
-        <v>2</v>
-      </c>
-      <c r="G24" s="11">
-        <v>8</v>
-      </c>
-      <c r="H24" s="11">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="B24" s="3">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3">
+        <v>112797</v>
+      </c>
+      <c r="D24" s="3">
+        <v>26981</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3">
         <v>18</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C25" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D25" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E25" s="11">
-        <v>4</v>
-      </c>
-      <c r="F25" s="11">
-        <v>3</v>
-      </c>
-      <c r="G25" s="11">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11">
-        <v>23</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="B25" s="3">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>112797</v>
+      </c>
+      <c r="D25" s="3">
+        <v>26981</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3">
         <v>18</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C26" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D26" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E26" s="11">
-        <v>4</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>23</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="B26" s="3">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3">
+        <v>112797</v>
+      </c>
+      <c r="D26" s="3">
+        <v>26981</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3">
         <v>18</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C27" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D27" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E27" s="11">
-        <v>4</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11">
-        <v>23</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="B27" s="3">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3">
+        <v>112797</v>
+      </c>
+      <c r="D27" s="3">
+        <v>26981</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
         <v>18</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C28" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D28" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E28" s="11">
-        <v>4</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11">
-        <v>2</v>
-      </c>
-      <c r="H28" s="11">
-        <v>23</v>
-      </c>
-      <c r="I28" s="11">
-        <v>18</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C29" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D29" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E29" s="11">
-        <v>4</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
-        <v>3</v>
-      </c>
-      <c r="H29" s="11">
-        <v>23</v>
-      </c>
-      <c r="I29" s="11">
-        <v>18</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C30" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D30" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E30" s="11">
-        <v>4</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
-        <v>4</v>
-      </c>
-      <c r="H30" s="11">
-        <v>23</v>
-      </c>
-      <c r="I30" s="11">
-        <v>18</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C31" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D31" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E31" s="11">
-        <v>4</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>5</v>
-      </c>
-      <c r="H31" s="11">
-        <v>23</v>
-      </c>
-      <c r="I31" s="11">
-        <v>18</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C32" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D32" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11">
-        <v>6</v>
-      </c>
-      <c r="H32" s="11">
-        <v>23</v>
-      </c>
-      <c r="I32" s="11">
-        <v>18</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C33" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D33" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E33" s="11">
-        <v>4</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11">
-        <v>7</v>
-      </c>
-      <c r="H33" s="11">
-        <v>23</v>
-      </c>
-      <c r="I33" s="11">
-        <v>18</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>65.02</v>
-      </c>
-      <c r="C34" s="11">
-        <v>112797</v>
-      </c>
-      <c r="D34" s="11">
-        <v>26981</v>
-      </c>
-      <c r="E34" s="11">
-        <v>4</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11">
-        <v>8</v>
-      </c>
-      <c r="H34" s="11">
-        <v>23</v>
-      </c>
-      <c r="I34" s="11">
-        <v>18</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>65</v>
-      </c>
-      <c r="C35" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D35" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>23</v>
-      </c>
-      <c r="I35" s="3">
-        <v>18</v>
-      </c>
-      <c r="J35" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D36" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3">
-        <v>23</v>
-      </c>
-      <c r="I36" s="3">
-        <v>18</v>
-      </c>
-      <c r="J36" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D37" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>8</v>
-      </c>
-      <c r="H37" s="3">
-        <v>23</v>
-      </c>
-      <c r="I37" s="3">
-        <v>18</v>
-      </c>
-      <c r="J37" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D38" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>8</v>
-      </c>
-      <c r="H38" s="3">
-        <v>23</v>
-      </c>
-      <c r="I38" s="3">
-        <v>18</v>
-      </c>
-      <c r="J38" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>45</v>
-      </c>
-      <c r="C39" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D39" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>8</v>
-      </c>
-      <c r="H39" s="3">
-        <v>23</v>
-      </c>
-      <c r="I39" s="3">
-        <v>18</v>
-      </c>
-      <c r="J39" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3">
-        <v>112797</v>
-      </c>
-      <c r="D40" s="3">
-        <v>26981</v>
-      </c>
-      <c r="E40" s="3">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3">
-        <v>23</v>
-      </c>
-      <c r="I40" s="3">
-        <v>18</v>
-      </c>
-      <c r="J40" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
